--- a/data/trans_camb/IP11-Edad-trans_camb.xlsx
+++ b/data/trans_camb/IP11-Edad-trans_camb.xlsx
@@ -838,7 +838,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>5/9</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>5,22</t>
+          <t>3,82</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,93</t>
+          <t>-1,07</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-4,09</t>
+          <t>-1,21</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,58</t>
+          <t>5,61</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-1,42</t>
+          <t>-0,73</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-2,82</t>
+          <t>-1,86</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>2,97</t>
+          <t>4,69</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-0,21</t>
+          <t>-0,91</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-3,48</t>
+          <t>-1,54</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,24; 9,77</t>
+          <t>-0,0; 7,71</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,49; 4,54</t>
+          <t>-4,44; 2,1</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-6,84; -1,27</t>
+          <t>-4,54; 2,43</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,54; 4,35</t>
+          <t>1,77; 9,73</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-4,74; 1,63</t>
+          <t>-4,07; 2,32</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-5,69; -0,08</t>
+          <t>-5,2; 1,04</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,36; 5,69</t>
+          <t>2,03; 7,7</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-2,82; 2,18</t>
+          <t>-3,08; 1,34</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-5,74; -1,56</t>
+          <t>-3,86; 0,94</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>75,27%</t>
+          <t>71,14%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>13,41%</t>
+          <t>-20,0%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-58,96%</t>
+          <t>-22,55%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>10,03%</t>
+          <t>124,98%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-24,28%</t>
+          <t>-16,2%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-48,33%</t>
+          <t>-41,31%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>46,42%</t>
+          <t>94,87%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-3,32%</t>
+          <t>-18,31%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-54,31%</t>
+          <t>-31,05%</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>13,81; 187,12</t>
+          <t>-2,14; 213,49</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-30,71; 88,52</t>
+          <t>-61,96; 67,77</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-78,52; -21,09</t>
+          <t>-65,57; 75,38</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-36,7; 98,94</t>
+          <t>24,36; 350,76</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-61,44; 37,75</t>
+          <t>-62,72; 85,02</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-74,5; 0,98</t>
+          <t>-78,36; 56,89</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>3,1; 107,65</t>
+          <t>32,79; 205,8</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-37,24; 41,54</t>
+          <t>-49,84; 36,09</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-72,11; -29,76</t>
+          <t>-63,19; 27,86</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>10/15</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>3,82</t>
+          <t>5,22</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-1,07</t>
+          <t>0,93</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-1,21</t>
+          <t>-4,09</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>5,61</t>
+          <t>0,58</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-0,73</t>
+          <t>-1,42</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-1,86</t>
+          <t>-2,82</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>4,69</t>
+          <t>2,97</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-0,91</t>
+          <t>-0,21</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-1,54</t>
+          <t>-3,48</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,0; 7,71</t>
+          <t>1,24; 9,77</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,44; 2,1</t>
+          <t>-2,49; 4,54</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-4,54; 2,43</t>
+          <t>-6,84; -1,27</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,77; 9,73</t>
+          <t>-2,54; 4,35</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-4,07; 2,32</t>
+          <t>-4,74; 1,63</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-5,2; 1,04</t>
+          <t>-5,69; -0,08</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>2,03; 7,7</t>
+          <t>0,36; 5,69</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-3,08; 1,34</t>
+          <t>-2,82; 2,18</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-3,86; 0,94</t>
+          <t>-5,74; -1,56</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>71,14%</t>
+          <t>75,27%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-20,0%</t>
+          <t>13,41%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-22,55%</t>
+          <t>-58,96%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>124,98%</t>
+          <t>10,03%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-16,2%</t>
+          <t>-24,28%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-41,31%</t>
+          <t>-48,33%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>94,87%</t>
+          <t>46,42%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-18,31%</t>
+          <t>-3,32%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-31,05%</t>
+          <t>-54,31%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-2,14; 213,49</t>
+          <t>13,81; 187,12</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-61,96; 67,77</t>
+          <t>-30,71; 88,52</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-65,57; 75,38</t>
+          <t>-78,52; -21,09</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>24,36; 350,76</t>
+          <t>-36,7; 98,94</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-62,72; 85,02</t>
+          <t>-61,44; 37,75</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-78,36; 56,89</t>
+          <t>-74,5; 0,98</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>32,79; 205,8</t>
+          <t>3,1; 107,65</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-49,84; 36,09</t>
+          <t>-37,24; 41,54</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-63,19; 27,86</t>
+          <t>-72,11; -29,76</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP11-Edad-trans_camb.xlsx
+++ b/data/trans_camb/IP11-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,77</t>
+          <t>0,59</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-3,14</t>
+          <t>-3,59</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-4,77</t>
+          <t>-3,63</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,32</t>
+          <t>4,0</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-3,66</t>
+          <t>-2,47</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-3,71</t>
+          <t>-2,0</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,55</t>
+          <t>2,21</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-3,4</t>
+          <t>-3,13</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-4,24</t>
+          <t>-2,89</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,74; 4,51</t>
+          <t>-4,04; 5,34</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-6,63; 0,27</t>
+          <t>-7,62; 0,19</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-8,24; -1,61</t>
+          <t>-7,88; 0,51</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,99; 3,45</t>
+          <t>0,18; 8,63</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-6,17; -1,11</t>
+          <t>-5,88; -0,06</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-6,37; -0,71</t>
+          <t>-5,23; 1,29</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-1,99; 3,09</t>
+          <t>-1,32; 5,2</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-5,44; -1,15</t>
+          <t>-5,89; -0,79</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-6,61; -2,13</t>
+          <t>-5,78; -0,2</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>11,24%</t>
+          <t>10,2%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-45,94%</t>
+          <t>-61,94%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-69,7%</t>
+          <t>-62,61%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>6,39%</t>
+          <t>120,21%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-72,52%</t>
+          <t>-74,43%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-73,46%</t>
+          <t>-60,21%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>9,19%</t>
+          <t>47,69%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-56,89%</t>
+          <t>-67,52%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-71,02%</t>
+          <t>-62,3%</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-40,35; 94,1</t>
+          <t>-51,26; 161,44</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-74,7; 8,6</t>
+          <t>-91,29; 44,04</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-93,25; -23,35</t>
+          <t>-100,0; 79,28</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-46,54; 103,2</t>
+          <t>-11,84; 654,22</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-91,17; -24,52</t>
+          <t>-100,0; 52,41</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-93,65; 6,57</t>
+          <t>-100,0; 151,7</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-28,82; 65,13</t>
+          <t>-22,35; 158,99</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-75,37; -24,07</t>
+          <t>-88,78; -14,6</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-87,57; -36,57</t>
+          <t>-91,06; 10,79</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>3,82</t>
+          <t>4,17</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-1,07</t>
+          <t>-1,91</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-1,21</t>
+          <t>-3,46</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>5,61</t>
+          <t>2,54</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-0,73</t>
+          <t>-2,25</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-1,86</t>
+          <t>-2,9</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>4,69</t>
+          <t>3,44</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-0,91</t>
+          <t>-2,01</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-1,54</t>
+          <t>-3,17</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,0; 7,71</t>
+          <t>0,24; 8,2</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,44; 2,1</t>
+          <t>-5,02; 1,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,54; 2,43</t>
+          <t>-6,83; -0,13</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,77; 9,73</t>
+          <t>-0,67; 6,33</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-4,07; 2,32</t>
+          <t>-5,21; 0,46</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-5,2; 1,04</t>
+          <t>-5,83; 0,12</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2,03; 7,7</t>
+          <t>0,8; 6,39</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-3,08; 1,34</t>
+          <t>-4,19; 0,17</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-3,86; 0,94</t>
+          <t>-5,34; -0,91</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>71,14%</t>
+          <t>65,87%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-20,0%</t>
+          <t>-30,15%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-22,55%</t>
+          <t>-54,7%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>124,98%</t>
+          <t>48,13%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-16,2%</t>
+          <t>-42,64%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-41,31%</t>
+          <t>-54,86%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>94,87%</t>
+          <t>59,29%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-18,31%</t>
+          <t>-34,6%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-31,05%</t>
+          <t>-54,57%</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-2,14; 213,49</t>
+          <t>1,58; 181,12</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-61,96; 67,77</t>
+          <t>-63,24; 23,52</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-65,57; 75,38</t>
+          <t>-83,26; 3,6</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>24,36; 350,76</t>
+          <t>-11,81; 176,81</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-62,72; 85,02</t>
+          <t>-75,03; 21,37</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-78,36; 56,89</t>
+          <t>-84,91; 17,12</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>32,79; 205,8</t>
+          <t>10,83; 140,54</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-49,84; 36,09</t>
+          <t>-60,85; 4,63</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-63,19; 27,86</t>
+          <t>-76,59; -16,33</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>8-11</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>5,22</t>
+          <t>0,07</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,93</t>
+          <t>-1,35</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
+          <t>-4,1</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>-0,03</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>-3,58</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>-4,1</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-0,0</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>-2,49</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
           <t>-4,09</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>0,58</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>-1,42</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>-2,82</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>2,97</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>-0,21</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>-3,48</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,24; 9,77</t>
+          <t>-4,79; 5,17</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,49; 4,54</t>
+          <t>-6,42; 3,32</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-6,84; -1,27</t>
+          <t>-8,75; 0,37</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,54; 4,35</t>
+          <t>-5,33; 5,04</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-4,74; 1,63</t>
+          <t>-8,46; -0,05</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-5,69; -0,08</t>
+          <t>-8,29; -0,17</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,36; 5,69</t>
+          <t>-3,65; 3,66</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-2,82; 2,18</t>
+          <t>-5,76; 0,65</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-5,74; -1,56</t>
+          <t>-7,43; -1,21</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>75,27%</t>
+          <t>0,91%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>13,41%</t>
+          <t>-17,28%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-58,96%</t>
+          <t>-52,46%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>10,03%</t>
+          <t>-0,47%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-24,28%</t>
+          <t>-51,89%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-48,33%</t>
+          <t>-59,43%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>46,42%</t>
+          <t>-0,04%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-3,32%</t>
+          <t>-33,74%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-54,31%</t>
+          <t>-55,46%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>13,81; 187,12</t>
+          <t>-46,42; 102,67</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-30,71; 88,52</t>
+          <t>-60,76; 64,11</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-78,52; -21,09</t>
+          <t>-81,15; 19,05</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-36,7; 98,94</t>
+          <t>-53,69; 114,93</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-61,44; 37,75</t>
+          <t>-81,17; 5,56</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-74,5; 0,98</t>
+          <t>-86,6; 5,46</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>3,1; 107,65</t>
+          <t>-39,8; 67,43</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-37,24; 41,54</t>
+          <t>-59,15; 14,98</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-72,11; -29,76</t>
+          <t>-76,85; -14,04</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>12-15</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>3,33</t>
+          <t>7,04</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-0,96</t>
+          <t>2,31</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-3,35</t>
+          <t>-3,02</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>2,09</t>
+          <t>1,91</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-1,86</t>
+          <t>0,65</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-2,55</t>
+          <t>-1,99</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>2,73</t>
+          <t>4,53</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-1,4</t>
+          <t>1,47</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-2,95</t>
+          <t>-2,52</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,08; 5,69</t>
+          <t>2,13; 12,36</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,94; 1,02</t>
+          <t>-2,21; 6,62</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-5,26; -1,44</t>
+          <t>-6,32; 0,08</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,05; 4,07</t>
+          <t>-1,72; 6,12</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-3,79; -0,17</t>
+          <t>-3,13; 4,47</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-4,32; -0,91</t>
+          <t>-5,19; 0,98</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>1,08; 4,21</t>
+          <t>1,37; 7,34</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-2,94; -0,09</t>
+          <t>-1,35; 4,51</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-4,16; -1,62</t>
+          <t>-4,86; -0,36</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>51,76%</t>
+          <t>117,28%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-14,92%</t>
+          <t>38,5%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-51,97%</t>
+          <t>-50,33%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>40,31%</t>
+          <t>38,45%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-35,79%</t>
+          <t>13,16%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-49,21%</t>
+          <t>-40,25%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>46,77%</t>
+          <t>82,5%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-23,94%</t>
+          <t>26,79%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-50,69%</t>
+          <t>-45,92%</t>
         </is>
       </c>
     </row>
@@ -1439,58 +1439,282 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>13,16; 100,17</t>
+          <t>26,15; 295,58</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-39,9; 17,91</t>
+          <t>-26,95; 160,06</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-69,27; -24,81</t>
+          <t>-77,68; 7,05</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-1,32; 95,65</t>
+          <t>-30,08; 205,8</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-60,67; -3,57</t>
+          <t>-50,14; 148,84</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-69,32; -19,94</t>
+          <t>-73,75; 38,82</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>15,59; 79,9</t>
+          <t>21,81; 179,44</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-43,63; -1,56</t>
+          <t>-21,37; 107,3</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-64,32; -32,17</t>
+          <t>-69,49; -7,92</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>3,33</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>-0,96</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>-3,35</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>2,09</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>-1,86</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>-2,55</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>2,73</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>-1,4</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>-2,95</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>1,01; 5,65</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-2,87; 1,01</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-5,12; -1,53</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>0,17; 4,16</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>-3,79; -0,19</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-4,29; -0,79</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>1,1; 4,24</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-2,95; -0,12</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>-4,15; -1,7</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>51,76%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>-14,92%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>-51,97%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>40,31%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>-35,79%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>-49,21%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>46,77%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>-23,94%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>-50,69%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>12,7; 104,18</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-39,48; 18,52</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-68,38; -24,99</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>0,12; 97,1</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>-59,84; -1,83</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-69,82; -18,82</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>16,82; 83,63</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-44,0; -1,98</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>-63,59; -33,77</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>

--- a/data/trans_camb/IP11-Edad-trans_camb.xlsx
+++ b/data/trans_camb/IP11-Edad-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,04; 5,34</t>
+          <t>-4,49; 5,18</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-7,62; 0,19</t>
+          <t>-7,42; 0,05</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-7,88; 0,51</t>
+          <t>-7,68; 1,2</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,18; 8,63</t>
+          <t>-0,28; 8,38</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-5,88; -0,06</t>
+          <t>-6,35; -0,23</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-5,23; 1,29</t>
+          <t>-5,37; 0,95</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-1,32; 5,2</t>
+          <t>-1,05; 5,34</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-5,89; -0,79</t>
+          <t>-5,85; -0,82</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-5,78; -0,2</t>
+          <t>-5,48; -0,12</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-51,26; 161,44</t>
+          <t>-54,47; 167,25</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-91,29; 44,04</t>
+          <t>-92,13; 10,22</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 79,28</t>
+          <t>-100,0; 100,2</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-11,84; 654,22</t>
+          <t>-16,49; 531,1</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 52,41</t>
+          <t>-100,0; 69,04</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 151,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-22,35; 158,99</t>
+          <t>-18,49; 178,75</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-88,78; -14,6</t>
+          <t>-89,21; -19,22</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-91,06; 10,79</t>
+          <t>-90,15; 10,55</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,24; 8,2</t>
+          <t>0,48; 8,11</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-5,02; 1,0</t>
+          <t>-5,15; 0,92</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-6,83; -0,13</t>
+          <t>-6,76; -0,2</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,67; 6,33</t>
+          <t>-1,3; 6,02</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-5,21; 0,46</t>
+          <t>-5,2; 0,73</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-5,83; 0,12</t>
+          <t>-5,72; -0,08</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,8; 6,39</t>
+          <t>0,87; 6,19</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-4,19; 0,17</t>
+          <t>-4,17; 0,46</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-5,34; -0,91</t>
+          <t>-5,25; -0,75</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,58; 181,12</t>
+          <t>2,7; 173,06</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-63,24; 23,52</t>
+          <t>-65,9; 20,06</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-83,26; 3,6</t>
+          <t>-83,11; 9,08</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-11,81; 176,81</t>
+          <t>-18,43; 154,23</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-75,03; 21,37</t>
+          <t>-74,07; 23,55</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-84,91; 17,12</t>
+          <t>-84,22; 21,48</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>10,83; 140,54</t>
+          <t>11,29; 136,81</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-60,85; 4,63</t>
+          <t>-59,77; 14,22</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-76,59; -16,33</t>
+          <t>-75,55; -12,86</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-4,79; 5,17</t>
+          <t>-4,77; 5,52</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-6,42; 3,32</t>
+          <t>-6,16; 3,47</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-8,75; 0,37</t>
+          <t>-8,69; 0,27</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-5,33; 5,04</t>
+          <t>-5,4; 5,19</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-8,46; -0,05</t>
+          <t>-8,14; 0,3</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-8,29; -0,17</t>
+          <t>-8,65; 0,02</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-3,65; 3,66</t>
+          <t>-3,7; 3,65</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-5,76; 0,65</t>
+          <t>-6,03; 0,42</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-7,43; -1,21</t>
+          <t>-7,39; -1,03</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-46,42; 102,67</t>
+          <t>-48,36; 111,16</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-60,76; 64,11</t>
+          <t>-56,85; 72,95</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-81,15; 19,05</t>
+          <t>-81,13; 9,48</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-53,69; 114,93</t>
+          <t>-57,29; 136,2</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-81,17; 5,56</t>
+          <t>-79,65; 11,17</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-86,6; 5,46</t>
+          <t>-87,07; 10,45</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-39,8; 67,43</t>
+          <t>-38,79; 68,88</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-59,15; 14,98</t>
+          <t>-59,5; 8,33</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-76,85; -14,04</t>
+          <t>-76,86; -14,68</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2,13; 12,36</t>
+          <t>2,34; 12,44</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,21; 6,62</t>
+          <t>-1,64; 7,02</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-6,32; 0,08</t>
+          <t>-6,08; 0,01</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,72; 6,12</t>
+          <t>-2,12; 5,93</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-3,13; 4,47</t>
+          <t>-3,27; 4,77</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-5,19; 0,98</t>
+          <t>-4,91; 0,84</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>1,37; 7,34</t>
+          <t>1,52; 7,81</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,35; 4,51</t>
+          <t>-1,29; 4,49</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-4,86; -0,36</t>
+          <t>-4,75; -0,41</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>26,15; 295,58</t>
+          <t>27,03; 302,15</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-26,95; 160,06</t>
+          <t>-24,7; 164,68</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-77,68; 7,05</t>
+          <t>-77,79; 5,66</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-30,08; 205,8</t>
+          <t>-34,9; 179,91</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-50,14; 148,84</t>
+          <t>-49,36; 147,7</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-73,75; 38,82</t>
+          <t>-71,98; 34,32</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>21,81; 179,44</t>
+          <t>18,11; 178,21</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-21,37; 107,3</t>
+          <t>-20,93; 101,28</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-69,49; -7,92</t>
+          <t>-68,61; -4,14</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>1,01; 5,65</t>
+          <t>0,97; 5,81</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-2,87; 1,01</t>
+          <t>-2,84; 1,12</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-5,12; -1,53</t>
+          <t>-5,21; -1,55</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0,17; 4,16</t>
+          <t>-0,01; 4,18</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-3,79; -0,19</t>
+          <t>-3,57; -0,15</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-4,29; -0,79</t>
+          <t>-4,2; -0,78</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>1,1; 4,24</t>
+          <t>1,1; 4,33</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-2,95; -0,12</t>
+          <t>-2,56; -0,08</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-4,15; -1,7</t>
+          <t>-4,33; -1,75</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>12,7; 104,18</t>
+          <t>12,83; 107,84</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-39,48; 18,52</t>
+          <t>-38,42; 20,07</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-68,38; -24,99</t>
+          <t>-69,24; -24,94</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>0,12; 97,1</t>
+          <t>-0,77; 101,52</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-59,84; -1,83</t>
+          <t>-57,04; -0,86</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-69,82; -18,82</t>
+          <t>-67,76; -16,74</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>16,82; 83,63</t>
+          <t>15,6; 82,46</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-44,0; -1,98</t>
+          <t>-40,11; -1,01</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-63,59; -33,77</t>
+          <t>-64,96; -32,44</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP11-Edad-trans_camb.xlsx
+++ b/data/trans_camb/IP11-Edad-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -537,14 +537,14 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="G1" s="3" t="n"/>
@@ -632,32 +632,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>4,0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>-2,47</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>-2,0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>0,59</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="G4" s="2" t="inlineStr">
         <is>
           <t>-3,59</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-3,63</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>4,0</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>-2,47</t>
-        </is>
-      </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-2,0</t>
+          <t>-3,62</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-2,89</t>
+          <t>-2,88</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,49; 5,18</t>
+          <t>-0,17; 8,38</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-7,42; 0,05</t>
+          <t>-6,01; 0,11</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-7,68; 1,2</t>
+          <t>-5,44; 0,98</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,28; 8,38</t>
+          <t>-3,56; 5,95</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-6,35; -0,23</t>
+          <t>-7,61; 0,14</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-5,37; 0,95</t>
+          <t>-7,53; 1,09</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-1,05; 5,34</t>
+          <t>-0,99; 5,39</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-5,85; -0,82</t>
+          <t>-6,02; -1,0</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-5,48; -0,12</t>
+          <t>-5,58; 0,23</t>
         </is>
       </c>
     </row>
@@ -738,32 +738,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>120,21%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>-74,43%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>-60,05%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>10,2%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="G6" s="2" t="inlineStr">
         <is>
           <t>-61,94%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-62,61%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>120,21%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>-74,43%</t>
-        </is>
-      </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-60,21%</t>
+          <t>-62,47%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-62,3%</t>
+          <t>-61,94%</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-54,47; 167,25</t>
+          <t>-15,16; 573,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-92,13; 10,22</t>
+          <t>-100,0; 230,29</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 100,2</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-16,49; 531,1</t>
+          <t>-46,47; 153,3</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 69,04</t>
+          <t>-91,6; 23,17</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 99,01</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-18,49; 178,75</t>
+          <t>-19,37; 174,9</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-89,21; -19,22</t>
+          <t>-90,15; -21,33</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-90,15; 10,55</t>
+          <t>-90,09; 27,37</t>
         </is>
       </c>
     </row>
@@ -848,32 +848,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>2,54</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>-2,25</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>-2,94</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>4,17</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="G8" s="2" t="inlineStr">
         <is>
           <t>-1,91</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-3,46</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>2,54</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-2,25</t>
-        </is>
-      </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-2,9</t>
+          <t>-3,28</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-3,17</t>
+          <t>-3,09</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,48; 8,11</t>
+          <t>-0,83; 6,25</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-5,15; 0,92</t>
+          <t>-5,25; 0,9</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-6,76; -0,2</t>
+          <t>-5,63; 0,15</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,3; 6,02</t>
+          <t>0,34; 8,72</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-5,2; 0,73</t>
+          <t>-5,02; 1,47</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-5,72; -0,08</t>
+          <t>-6,45; 0,21</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,87; 6,19</t>
+          <t>0,86; 6,2</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-4,17; 0,46</t>
+          <t>-4,06; 0,26</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-5,25; -0,75</t>
+          <t>-5,32; -0,75</t>
         </is>
       </c>
     </row>
@@ -954,32 +954,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>48,13%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>-42,64%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>-55,78%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>65,87%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="G10" s="2" t="inlineStr">
         <is>
           <t>-30,15%</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-54,7%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>48,13%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>-42,64%</t>
-        </is>
-      </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-54,86%</t>
+          <t>-51,89%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-54,57%</t>
+          <t>-53,25%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,7; 173,06</t>
+          <t>-12,66; 163,16</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-65,9; 20,06</t>
+          <t>-75,15; 37,57</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-83,11; 9,08</t>
+          <t>-84,05; 16,87</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-18,43; 154,23</t>
+          <t>2,79; 187,57</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-74,07; 23,55</t>
+          <t>-61,27; 34,87</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-84,22; 21,48</t>
+          <t>-82,28; 11,37</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>11,29; 136,81</t>
+          <t>12,2; 132,7</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-59,77; 14,22</t>
+          <t>-58,47; 6,51</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-75,55; -12,86</t>
+          <t>-77,01; -12,17</t>
         </is>
       </c>
     </row>
@@ -1064,32 +1064,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>-0,03</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>-3,58</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>-4,09</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>0,07</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
+      <c r="G12" s="2" t="inlineStr">
         <is>
           <t>-1,35</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-4,1</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>-0,03</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>-3,58</t>
-        </is>
-      </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-4,1</t>
+          <t>-4,17</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-4,09</t>
+          <t>-4,11</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-4,77; 5,52</t>
+          <t>-5,14; 4,88</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-6,16; 3,47</t>
+          <t>-7,94; 0,21</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-8,69; 0,27</t>
+          <t>-8,99; -0,22</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-5,4; 5,19</t>
+          <t>-5,21; 5,37</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-8,14; 0,3</t>
+          <t>-6,51; 3,04</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-8,65; 0,02</t>
+          <t>-8,64; 0,68</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-3,7; 3,65</t>
+          <t>-3,68; 3,65</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-6,03; 0,42</t>
+          <t>-5,92; 0,43</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-7,39; -1,03</t>
+          <t>-7,39; -0,94</t>
         </is>
       </c>
     </row>
@@ -1170,32 +1170,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>-0,47%</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>-51,89%</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>-59,31%</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
           <t>0,91%</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
+      <c r="G14" s="2" t="inlineStr">
         <is>
           <t>-17,28%</t>
         </is>
       </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-52,46%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>-0,47%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>-51,89%</t>
-        </is>
-      </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-59,43%</t>
+          <t>-53,38%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-55,46%</t>
+          <t>-55,75%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-48,36; 111,16</t>
+          <t>-55,61; 119,56</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-56,85; 72,95</t>
+          <t>-80,7; 13,28</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-81,13; 9,48</t>
+          <t>-87,02; 2,27</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-57,29; 136,2</t>
+          <t>-51,61; 104,11</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-79,65; 11,17</t>
+          <t>-59,98; 61,26</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-87,07; 10,45</t>
+          <t>-81,47; 22,39</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-38,79; 68,88</t>
+          <t>-40,17; 65,89</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-59,5; 8,33</t>
+          <t>-61,93; 11,06</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-76,86; -14,68</t>
+          <t>-77,25; -13,66</t>
         </is>
       </c>
     </row>
@@ -1280,32 +1280,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>1,91</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>0,65</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>-2,12</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
           <t>7,04</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
+      <c r="G16" s="2" t="inlineStr">
         <is>
           <t>2,31</t>
         </is>
       </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>-3,02</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>1,91</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>0,65</t>
-        </is>
-      </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-1,99</t>
+          <t>-2,91</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-2,52</t>
+          <t>-2,53</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2,34; 12,44</t>
+          <t>-1,97; 6,26</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,64; 7,02</t>
+          <t>-2,99; 4,9</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-6,08; 0,01</t>
+          <t>-5,82; 0,51</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-2,12; 5,93</t>
+          <t>2,31; 11,47</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-3,27; 4,77</t>
+          <t>-1,76; 6,78</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-4,91; 0,84</t>
+          <t>-7,05; 0,19</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>1,52; 7,81</t>
+          <t>1,49; 7,73</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,29; 4,49</t>
+          <t>-1,42; 4,37</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-4,75; -0,41</t>
+          <t>-4,89; -0,55</t>
         </is>
       </c>
     </row>
@@ -1386,32 +1386,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
+          <t>38,45%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>13,16%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>-42,88%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
           <t>117,28%</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
+      <c r="G18" s="2" t="inlineStr">
         <is>
           <t>38,5%</t>
         </is>
       </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>-50,33%</t>
-        </is>
-      </c>
-      <c r="F18" s="2" t="inlineStr">
-        <is>
-          <t>38,45%</t>
-        </is>
-      </c>
-      <c r="G18" s="2" t="inlineStr">
-        <is>
-          <t>13,16%</t>
-        </is>
-      </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-40,25%</t>
+          <t>-48,54%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-45,92%</t>
+          <t>-46,01%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>27,03; 302,15</t>
+          <t>-32,61; 202,36</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-24,7; 164,68</t>
+          <t>-46,32; 154,32</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-77,79; 5,66</t>
+          <t>-79,53; 19,78</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-34,9; 179,91</t>
+          <t>25,58; 269,89</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-49,36; 147,7</t>
+          <t>-25,06; 164,14</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-71,98; 34,32</t>
+          <t>-80,27; 14,54</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>18,11; 178,21</t>
+          <t>19,33; 174,19</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-20,93; 101,28</t>
+          <t>-22,66; 99,59</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-68,61; -4,14</t>
+          <t>-69,65; -8,71</t>
         </is>
       </c>
     </row>
@@ -1496,32 +1496,32 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
+          <t>2,09</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>-1,86</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>-2,61</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
           <t>3,33</t>
         </is>
       </c>
-      <c r="D20" s="2" t="inlineStr">
+      <c r="G20" s="2" t="inlineStr">
         <is>
           <t>-0,96</t>
         </is>
       </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>-3,35</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>2,09</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>-1,86</t>
-        </is>
-      </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-2,55</t>
+          <t>-3,28</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>-2,95</t>
+          <t>-2,94</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0,97; 5,81</t>
+          <t>-0,05; 4,07</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-2,84; 1,12</t>
+          <t>-3,79; -0,17</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-5,21; -1,55</t>
+          <t>-4,36; -1,01</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-0,01; 4,18</t>
+          <t>1,08; 5,69</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-3,57; -0,15</t>
+          <t>-2,94; 1,02</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-4,2; -0,78</t>
+          <t>-5,2; -1,38</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>1,1; 4,33</t>
+          <t>1,08; 4,21</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-2,56; -0,08</t>
+          <t>-2,94; -0,09</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-4,33; -1,75</t>
+          <t>-4,16; -1,59</t>
         </is>
       </c>
     </row>
@@ -1602,32 +1602,32 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
+          <t>40,31%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>-35,79%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>-50,3%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
           <t>51,76%</t>
         </is>
       </c>
-      <c r="D22" s="2" t="inlineStr">
+      <c r="G22" s="2" t="inlineStr">
         <is>
           <t>-14,92%</t>
         </is>
       </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>-51,97%</t>
-        </is>
-      </c>
-      <c r="F22" s="2" t="inlineStr">
-        <is>
-          <t>40,31%</t>
-        </is>
-      </c>
-      <c r="G22" s="2" t="inlineStr">
-        <is>
-          <t>-35,79%</t>
-        </is>
-      </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-49,21%</t>
+          <t>-50,94%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>-50,69%</t>
+          <t>-50,48%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>12,83; 107,84</t>
+          <t>-1,32; 95,65</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-38,42; 20,07</t>
+          <t>-60,67; -3,57</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-69,24; -24,94</t>
+          <t>-70,13; -21,66</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-0,77; 101,52</t>
+          <t>13,16; 100,17</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-57,04; -0,86</t>
+          <t>-39,9; 17,91</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-67,76; -16,74</t>
+          <t>-68,76; -21,63</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>15,6; 82,46</t>
+          <t>15,59; 79,9</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-40,11; -1,01</t>
+          <t>-43,63; -1,56</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-64,96; -32,44</t>
+          <t>-63,84; -31,02</t>
         </is>
       </c>
     </row>
